--- a/01_Requirements/LedgerTypes/Types of ledgers 13.06.2022.xlsx
+++ b/01_Requirements/LedgerTypes/Types of ledgers 13.06.2022.xlsx
@@ -1,61 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\IIT\01_Requirements\LedgerTypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CA's Data\2022-23\IIT's\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7709673-A4F5-469D-AACA-A920156E1E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{066AF4A1-10FD-4E66-9851-4C8BE793B99C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Current Account- Firm" sheetId="24" r:id="rId1"/>
-    <sheet name="Cpaital Account- Propietor" sheetId="23" r:id="rId2"/>
+    <sheet name="Depreciation" sheetId="27" r:id="rId1"/>
+    <sheet name="Statutory dues" sheetId="26" r:id="rId2"/>
     <sheet name="Capital account- Firm" sheetId="21" r:id="rId3"/>
-    <sheet name="Reserves &amp; Surplus" sheetId="25" r:id="rId4"/>
-    <sheet name="Cash in Hand " sheetId="20" r:id="rId5"/>
-    <sheet name="Indirect Incomes" sheetId="19" r:id="rId6"/>
-    <sheet name="Direct Incomes" sheetId="18" r:id="rId7"/>
-    <sheet name="Raw Material Ledgers" sheetId="16" r:id="rId8"/>
-    <sheet name="Pay Sheets Ledgers" sheetId="15" r:id="rId9"/>
-    <sheet name="Regular Ledger I &amp; E" sheetId="14" r:id="rId10"/>
-    <sheet name="Capital Account " sheetId="10" r:id="rId11"/>
-    <sheet name="CC or ODC Ledger" sheetId="9" r:id="rId12"/>
-    <sheet name="Services" sheetId="17" r:id="rId13"/>
-    <sheet name="Loan Ledger" sheetId="8" r:id="rId14"/>
-    <sheet name="Bank Ledger" sheetId="2" r:id="rId15"/>
-    <sheet name="Debtors" sheetId="4" r:id="rId16"/>
-    <sheet name="Creditors" sheetId="5" r:id="rId17"/>
-    <sheet name="Fixed Assets Company" sheetId="6" r:id="rId18"/>
-    <sheet name="Fixed Assets Ind.I" sheetId="7" r:id="rId19"/>
-    <sheet name="Investment Ind.1" sheetId="11" r:id="rId20"/>
+    <sheet name="Cpaital Account- Propietor" sheetId="23" r:id="rId4"/>
+    <sheet name="Current Account- Firm" sheetId="24" r:id="rId5"/>
+    <sheet name="Reserves &amp; Surplus" sheetId="25" r:id="rId6"/>
+    <sheet name="Cash in Hand " sheetId="20" r:id="rId7"/>
+    <sheet name="Indirect Incomes" sheetId="19" r:id="rId8"/>
+    <sheet name="Direct Incomes" sheetId="18" r:id="rId9"/>
+    <sheet name="Regular ledger- Assets &amp; Liabil" sheetId="16" r:id="rId10"/>
+    <sheet name="Pay Sheets Ledgers" sheetId="15" r:id="rId11"/>
+    <sheet name="Regular Ledger Income and Exp" sheetId="14" r:id="rId12"/>
+    <sheet name="Capital Account - Company " sheetId="10" r:id="rId13"/>
+    <sheet name="CC or ODC Ledger" sheetId="9" r:id="rId14"/>
+    <sheet name="Creditors for Services" sheetId="17" r:id="rId15"/>
+    <sheet name="Loan Ledger- Liability" sheetId="8" r:id="rId16"/>
+    <sheet name="Bank Ledger- Asset" sheetId="2" r:id="rId17"/>
+    <sheet name="Debtors" sheetId="4" r:id="rId18"/>
+    <sheet name="Creditors for Raw Materials" sheetId="5" r:id="rId19"/>
+    <sheet name="FA-1 Company" sheetId="6" r:id="rId20"/>
+    <sheet name="FA-II" sheetId="7" r:id="rId21"/>
+    <sheet name="Investment Ind.1" sheetId="11" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">'Bank Ledger'!$E$2:$K$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'Capital Account '!$D$2:$J$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'Bank Ledger- Asset'!$E$2:$K$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'Capital Account - Company '!$D$2:$J$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Capital account- Firm'!$D$2:$J$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Cash in Hand '!$D$2:$H$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'CC or ODC Ledger'!$D$2:$J$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Cpaital Account- Propietor'!$D$2:$H$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="16">Creditors!$D$2:$J$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Current Account- Firm'!$D$2:$J$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">Debtors!$D$2:$J$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Direct Incomes'!$D$2:$L$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="17">'Fixed Assets Company'!$D$2:$K$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="18">'Fixed Assets Ind.I'!$D$2:$K$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Indirect Incomes'!$D$2:$L$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="19">'Investment Ind.1'!$D$2:$K$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">'Loan Ledger'!$D$2:$J$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'Pay Sheets Ledgers'!$D$2:$J$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Raw Material Ledgers'!$D$2:$L$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'Regular Ledger I &amp; E'!$D$2:$J$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Reserves &amp; Surplus'!$D$2:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">Services!$D$2:$J$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Cash in Hand '!$D$2:$H$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'CC or ODC Ledger'!$D$2:$J$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Cpaital Account- Propietor'!$D$2:$H$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">'Creditors for Raw Materials'!$D$2:$J$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'Creditors for Services'!$D$2:$J$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Current Account- Firm'!$D$2:$J$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">Debtors!$D$2:$J$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Depreciation!$D$2:$H$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Direct Incomes'!$D$2:$L$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="19">'FA-1 Company'!$D$2:$K$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="20">'FA-II'!$D$2:$K$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Indirect Incomes'!$D$2:$L$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="21">'Investment Ind.1'!$D$2:$K$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">'Loan Ledger- Liability'!$D$2:$J$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'Pay Sheets Ledgers'!$D$2:$J$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'Regular ledger- Assets &amp; Liabil'!$D$2:$L$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'Regular Ledger Income and Exp'!$D$2:$J$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Reserves &amp; Surplus'!$D$2:$H$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Statutory dues'!$D$2:$H$29</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -75,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="309">
   <si>
     <t xml:space="preserve">This screen is same for all Individuals/Firms/ HUF's/ LLP/ Company </t>
   </si>
@@ -972,16 +978,46 @@
   </si>
   <si>
     <t xml:space="preserve">Securities Premium reserve </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GST Payable ( Output) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statutory Dues  Ledger Creation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income tax </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provident fund payable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF Payable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional tax payable </t>
+  </si>
+  <si>
+    <t>TDS payable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCS Payable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depreciation Ledger Creation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the Asset- </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1696,6 +1732,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1708,57 +1768,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1918,6 +1954,15 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1926,15 +1971,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2409,17 +2445,1056 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E8B26B-AB50-4C00-9479-2A951BAFF1DE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="D2:J28"/>
+  <dimension ref="D2:H29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="60.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
+    </row>
+    <row r="5" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+    </row>
+    <row r="7" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
+    </row>
+    <row r="9" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+    </row>
+    <row r="11" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="2"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="72"/>
+    </row>
+    <row r="23" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="47" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="28" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="28" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="28" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="28" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E21:H21"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.118110236220472" right="0.31496062992126" top="0.15748031496063" bottom="0.15748031496063" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup scale="91" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE0D5D2-5BAA-4BC0-8BAE-F106AD40591A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="D2:L40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="42.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="67"/>
+    </row>
+    <row r="5" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="95" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="103" t="s">
+        <v>207</v>
+      </c>
+      <c r="L5" s="104"/>
+    </row>
+    <row r="6" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="104"/>
+    </row>
+    <row r="7" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="104"/>
+    </row>
+    <row r="8" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="2"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="104"/>
+    </row>
+    <row r="9" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="95" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="104"/>
+    </row>
+    <row r="10" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="104"/>
+    </row>
+    <row r="11" spans="4:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="108"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="108"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="104"/>
+    </row>
+    <row r="12" spans="4:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="104"/>
+    </row>
+    <row r="13" spans="4:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" s="98" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98" t="s">
+        <v>206</v>
+      </c>
+      <c r="J13" s="98"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="104"/>
+    </row>
+    <row r="14" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="104"/>
+    </row>
+    <row r="15" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="86" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="104"/>
+    </row>
+    <row r="16" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+      <c r="E16" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="104"/>
+    </row>
+    <row r="17" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="2"/>
+      <c r="E17" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="88"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="104"/>
+    </row>
+    <row r="18" spans="4:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="104"/>
+    </row>
+    <row r="19" spans="4:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="100"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="100"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="104"/>
+    </row>
+    <row r="20" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="2"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="104"/>
+    </row>
+    <row r="21" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="104"/>
+    </row>
+    <row r="22" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="2"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="104"/>
+    </row>
+    <row r="23" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="106"/>
+    </row>
+    <row r="25" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="K5:L23"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="E15:H15"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="87" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B961025-CB9A-4743-B7DC-A7123A364428}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="D2:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="60.28515625" style="1" customWidth="1"/>
+    <col min="5" max="8" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
+    </row>
+    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="45"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="115" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" s="116"/>
+    </row>
+    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
+    </row>
+    <row r="7" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="104"/>
+    </row>
+    <row r="8" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="111" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="104"/>
+    </row>
+    <row r="9" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="104"/>
+    </row>
+    <row r="10" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="111" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="104"/>
+    </row>
+    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="104"/>
+    </row>
+    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="104"/>
+    </row>
+    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="104"/>
+    </row>
+    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="104"/>
+    </row>
+    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="104"/>
+    </row>
+    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="72"/>
+      <c r="G16" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="71"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="104"/>
+    </row>
+    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="2"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="104"/>
+    </row>
+    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="104"/>
+    </row>
+    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="2"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="104"/>
+    </row>
+    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="86" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="104"/>
+    </row>
+    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="2"/>
+      <c r="E21" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="104"/>
+    </row>
+    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="2"/>
+      <c r="E22" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="104"/>
+    </row>
+    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="2"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="104"/>
+    </row>
+    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="104"/>
+    </row>
+    <row r="25" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="2"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="104"/>
+    </row>
+    <row r="26" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="72"/>
+      <c r="G26" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="71"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="104"/>
+    </row>
+    <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="2"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="104"/>
+    </row>
+    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="70"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="104"/>
+    </row>
+    <row r="29" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="104"/>
+    </row>
+    <row r="30" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="H30" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="I30" s="103"/>
+      <c r="J30" s="104"/>
+    </row>
+    <row r="31" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="2"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="104"/>
+    </row>
+    <row r="32" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="104"/>
+    </row>
+    <row r="33" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="2"/>
+      <c r="E33" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="104"/>
+    </row>
+    <row r="34" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="2"/>
+      <c r="E34" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="104"/>
+    </row>
+    <row r="35" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="2"/>
+      <c r="E35" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="104"/>
+    </row>
+    <row r="36" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="2"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="104"/>
+    </row>
+    <row r="37" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="113"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="106"/>
+    </row>
+    <row r="39" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="4:10" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="75"/>
+    </row>
+    <row r="42" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="22">
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="I5:J37"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E34:H34"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="79" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50617816-5B10-4939-A99D-62B09DD524BA}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="D2:J29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="60.28515625" style="1" customWidth="1"/>
@@ -2427,262 +3502,281 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D2" s="71" t="s">
-        <v>275</v>
-      </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-    </row>
-    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D3" s="72" t="s">
-        <v>281</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
-    </row>
-    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="2"/>
-      <c r="I4" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="J4" s="76"/>
-    </row>
-    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D5" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
-    </row>
-    <row r="6" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D6" s="2"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="76"/>
-    </row>
-    <row r="7" spans="4:10" ht="24.95" customHeight="1">
+    <row r="2" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
+    </row>
+    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="45"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="115" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" s="116"/>
+    </row>
+    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="89"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
+    </row>
+    <row r="7" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="2"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76"/>
-    </row>
-    <row r="8" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D8" s="63" t="s">
-        <v>282</v>
-      </c>
-      <c r="E8" s="79" t="s">
-        <v>284</v>
-      </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
-    </row>
-    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D9" s="63"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
-    </row>
-    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="104"/>
+    </row>
+    <row r="8" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="104"/>
+    </row>
+    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="104"/>
+    </row>
+    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E10" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="69" t="s">
+      <c r="F10" s="72"/>
+      <c r="G10" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="70"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="76"/>
-    </row>
-    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="H10" s="71"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="104"/>
+    </row>
+    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="76"/>
-    </row>
-    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="104"/>
+    </row>
+    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E12" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="104"/>
+    </row>
+    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="104"/>
+    </row>
+    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="69" t="s">
+      <c r="F14" s="72"/>
+      <c r="G14" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="76"/>
-    </row>
-    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D13" s="2"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="76"/>
-    </row>
-    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D14" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E14" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="70"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="76"/>
-    </row>
-    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="H14" s="71"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="104"/>
+    </row>
+    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="76"/>
-    </row>
-    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="104"/>
+    </row>
+    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E16" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="76"/>
-    </row>
-    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+        <v>214</v>
+      </c>
+      <c r="E16" s="92" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="104"/>
+    </row>
+    <row r="17" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="76"/>
-    </row>
-    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D18" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E18" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="70"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="76"/>
-    </row>
-    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D19" s="2"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76"/>
-    </row>
-    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D20" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E20" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="70"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="76"/>
-    </row>
-    <row r="21" spans="4:10" ht="24.95" customHeight="1">
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="104"/>
+    </row>
+    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="2"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="104"/>
+    </row>
+    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="104"/>
+    </row>
+    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="2"/>
+      <c r="E20" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="104"/>
+    </row>
+    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="76"/>
-    </row>
-    <row r="22" spans="4:10" ht="24.95" customHeight="1">
+      <c r="E21" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="104"/>
+    </row>
+    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="2"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="76"/>
-    </row>
-    <row r="23" spans="4:10" ht="45.6" customHeight="1" thickBot="1">
+      <c r="E22" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="104"/>
+    </row>
+    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="2"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="76"/>
-    </row>
-    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="104"/>
+    </row>
+    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="69"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="78"/>
-    </row>
-    <row r="25" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="26" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D26" s="65" t="s">
-        <v>274</v>
-      </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="67"/>
-    </row>
-    <row r="28" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
+        <v>12</v>
+      </c>
+      <c r="E24" s="92"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="106"/>
+    </row>
+    <row r="26" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="4:10" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="75"/>
+    </row>
+    <row r="29" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="I4:J24"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E8:H8"/>
+  <dataConsolidate/>
+  <mergeCells count="16">
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="I5:J24"/>
+    <mergeCell ref="E6:H6"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E19:H19"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
     <mergeCell ref="E24:H24"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.31496062992126" top="0.15748031496063" bottom="0.15748031496063" header="0.31496062992126" footer="0.31496062992126"/>
@@ -2690,18 +3784,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F87F90C-097D-42F4-894E-737BC0886C2A}">
+  <sheetPr codeName="Sheet9">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="D2:J33"/>
+  <dimension ref="D2:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H6"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="60.28515625" style="1" customWidth="1"/>
@@ -2709,46 +3803,48 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="24.95" customHeight="1">
+    <row r="2" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="72" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
-    </row>
-    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D5" s="45"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="115" t="s">
-        <v>137</v>
-      </c>
-      <c r="J5" s="116"/>
-    </row>
-    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D6" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
+    </row>
+    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="104"/>
+    </row>
+    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="67"/>
+      <c r="G6" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="67"/>
       <c r="I6" s="103"/>
       <c r="J6" s="104"/>
     </row>
-    <row r="7" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="7" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
@@ -2757,18 +3853,20 @@
       <c r="I7" s="103"/>
       <c r="J7" s="104"/>
     </row>
-    <row r="8" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="8" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="103"/>
+        <v>83</v>
+      </c>
+      <c r="E8" s="111" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="117"/>
       <c r="J8" s="104"/>
     </row>
-    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="2"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -2777,22 +3875,18 @@
       <c r="I9" s="103"/>
       <c r="J9" s="104"/>
     </row>
-    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="81"/>
+        <v>85</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="103"/>
       <c r="J10" s="104"/>
     </row>
-    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
@@ -2801,20 +3895,20 @@
       <c r="I11" s="103"/>
       <c r="J11" s="104"/>
     </row>
-    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
+        <v>86</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="94"/>
       <c r="I12" s="103"/>
       <c r="J12" s="104"/>
     </row>
-    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -2823,22 +3917,20 @@
       <c r="I13" s="103"/>
       <c r="J13" s="104"/>
     </row>
-    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="14" spans="4:10" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E14" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="81"/>
+        <v>88</v>
+      </c>
+      <c r="E14" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="120"/>
       <c r="I14" s="103"/>
       <c r="J14" s="104"/>
     </row>
-    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -2847,20 +3939,20 @@
       <c r="I15" s="103"/>
       <c r="J15" s="104"/>
     </row>
-    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E16" s="92" t="s">
-        <v>215</v>
-      </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
+        <v>90</v>
+      </c>
+      <c r="E16" s="121" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="123"/>
       <c r="I16" s="103"/>
       <c r="J16" s="104"/>
     </row>
-    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -2869,18 +3961,20 @@
       <c r="I17" s="103"/>
       <c r="J17" s="104"/>
     </row>
-    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
+        <v>92</v>
+      </c>
+      <c r="E18" s="124" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="126"/>
       <c r="I18" s="103"/>
       <c r="J18" s="104"/>
     </row>
-    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="19" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -2889,355 +3983,7 @@
       <c r="I19" s="103"/>
       <c r="J19" s="104"/>
     </row>
-    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D20" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="81"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="104"/>
-    </row>
-    <row r="21" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D21" s="2"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="104"/>
-    </row>
-    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D22" s="2"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="104"/>
-    </row>
-    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D23" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" s="86" t="s">
-        <v>156</v>
-      </c>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="104"/>
-    </row>
-    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D24" s="2"/>
-      <c r="E24" s="86" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="104"/>
-    </row>
-    <row r="25" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D25" s="2"/>
-      <c r="E25" s="86" t="s">
-        <v>158</v>
-      </c>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="104"/>
-    </row>
-    <row r="26" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D26" s="2"/>
-      <c r="E26" s="86" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="104"/>
-    </row>
-    <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D27" s="2"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="104"/>
-    </row>
-    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="92"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="106"/>
-    </row>
-    <row r="30" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="31" spans="4:10" ht="45.6" customHeight="1" thickBot="1">
-      <c r="D31" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="67"/>
-    </row>
-    <row r="33" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <mergeCells count="19">
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="I5:J28"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E28:H28"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.118110236220472" right="0.31496062992126" top="0.15748031496063" bottom="0.15748031496063" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup scale="83" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="D2:J26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
-  <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="60.28515625" style="1" customWidth="1"/>
-    <col min="5" max="8" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D2" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="72" t="s">
-        <v>252</v>
-      </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
-    </row>
-    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D5" s="2"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="104"/>
-    </row>
-    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
-    </row>
-    <row r="7" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D7" s="2"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="104"/>
-    </row>
-    <row r="8" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="111" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="104"/>
-    </row>
-    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D9" s="2"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="104"/>
-    </row>
-    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="104"/>
-    </row>
-    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D11" s="2"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="104"/>
-    </row>
-    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="104"/>
-    </row>
-    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D13" s="2"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="104"/>
-    </row>
-    <row r="14" spans="4:10" ht="38.450000000000003" customHeight="1" thickBot="1">
-      <c r="D14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="118" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="104"/>
-    </row>
-    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D15" s="2"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="104"/>
-    </row>
-    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="121" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="104"/>
-    </row>
-    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D17" s="2"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="104"/>
-    </row>
-    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="124" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="104"/>
-    </row>
-    <row r="19" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D19" s="2"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="104"/>
-    </row>
-    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
@@ -3246,37 +3992,37 @@
       <c r="I20" s="103"/>
       <c r="J20" s="104"/>
     </row>
-    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="69"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="72"/>
       <c r="I21" s="105"/>
       <c r="J21" s="106"/>
     </row>
-    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="24" spans="4:10" ht="45.6" customHeight="1" thickBot="1">
-      <c r="D24" s="65" t="s">
+    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="4:10" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="67"/>
-    </row>
-    <row r="26" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="75"/>
+    </row>
+    <row r="26" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3299,18 +4045,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A9555C-EC94-4969-BF34-F7624B05EA32}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D2:J37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="60.28515625" style="1" customWidth="1"/>
@@ -3318,24 +4064,24 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="24.95" customHeight="1">
+    <row r="2" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="72" t="s">
+    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
-    </row>
-    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
+    </row>
+    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
@@ -3344,20 +4090,20 @@
       <c r="I5" s="115"/>
       <c r="J5" s="116"/>
     </row>
-    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
       <c r="I6" s="103"/>
       <c r="J6" s="104"/>
     </row>
-    <row r="7" spans="4:10" ht="24.95" customHeight="1">
+    <row r="7" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
@@ -3366,7 +4112,7 @@
       <c r="I7" s="103"/>
       <c r="J7" s="104"/>
     </row>
-    <row r="8" spans="4:10" ht="24.95" customHeight="1">
+    <row r="8" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
         <v>44</v>
       </c>
@@ -3385,7 +4131,7 @@
       <c r="I8" s="103"/>
       <c r="J8" s="104"/>
     </row>
-    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="2"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -3394,7 +4140,7 @@
       <c r="I9" s="103"/>
       <c r="J9" s="104"/>
     </row>
-    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
         <v>222</v>
       </c>
@@ -3407,7 +4153,7 @@
       <c r="I10" s="103"/>
       <c r="J10" s="104"/>
     </row>
-    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="86" t="s">
         <v>224</v>
@@ -3418,7 +4164,7 @@
       <c r="I11" s="103"/>
       <c r="J11" s="104"/>
     </row>
-    <row r="12" spans="4:10" ht="30.75" customHeight="1" thickBot="1">
+    <row r="12" spans="4:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="86" t="s">
         <v>225</v>
@@ -3429,7 +4175,7 @@
       <c r="I12" s="103"/>
       <c r="J12" s="104"/>
     </row>
-    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -3438,7 +4184,7 @@
       <c r="I13" s="103"/>
       <c r="J13" s="104"/>
     </row>
-    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
         <v>63</v>
       </c>
@@ -3449,7 +4195,7 @@
       <c r="I14" s="103"/>
       <c r="J14" s="104"/>
     </row>
-    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -3458,7 +4204,7 @@
       <c r="I15" s="103"/>
       <c r="J15" s="104"/>
     </row>
-    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
         <v>47</v>
       </c>
@@ -3469,7 +4215,7 @@
       <c r="I16" s="103"/>
       <c r="J16" s="104"/>
     </row>
-    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -3478,7 +4224,7 @@
       <c r="I17" s="103"/>
       <c r="J17" s="104"/>
     </row>
-    <row r="18" spans="4:10" ht="48.75" customHeight="1" thickBot="1">
+    <row r="18" spans="4:10" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
         <v>59</v>
       </c>
@@ -3491,7 +4237,7 @@
       <c r="I18" s="103"/>
       <c r="J18" s="104"/>
     </row>
-    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -3500,7 +4246,7 @@
       <c r="I19" s="103"/>
       <c r="J19" s="104"/>
     </row>
-    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="2" t="s">
         <v>73</v>
       </c>
@@ -3513,7 +4259,7 @@
       <c r="I20" s="103"/>
       <c r="J20" s="104"/>
     </row>
-    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
@@ -3522,7 +4268,7 @@
       <c r="I21" s="103"/>
       <c r="J21" s="104"/>
     </row>
-    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="2" t="s">
         <v>75</v>
       </c>
@@ -3533,7 +4279,7 @@
       <c r="I22" s="103"/>
       <c r="J22" s="104"/>
     </row>
-    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="2"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
@@ -3542,7 +4288,7 @@
       <c r="I23" s="103"/>
       <c r="J23" s="104"/>
     </row>
-    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="2" t="s">
         <v>76</v>
       </c>
@@ -3553,7 +4299,7 @@
       <c r="I24" s="103"/>
       <c r="J24" s="104"/>
     </row>
-    <row r="25" spans="4:10" ht="24.95" customHeight="1">
+    <row r="25" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -3562,7 +4308,7 @@
       <c r="I25" s="103"/>
       <c r="J25" s="104"/>
     </row>
-    <row r="26" spans="4:10" ht="24.95" customHeight="1">
+    <row r="26" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
         <v>77</v>
       </c>
@@ -3577,7 +4323,7 @@
       <c r="I26" s="103"/>
       <c r="J26" s="104"/>
     </row>
-    <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="2"/>
       <c r="E27" s="44"/>
       <c r="F27" s="44"/>
@@ -3586,20 +4332,20 @@
       <c r="I27" s="103"/>
       <c r="J27" s="104"/>
     </row>
-    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="69" t="s">
+      <c r="E28" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
       <c r="I28" s="103"/>
       <c r="J28" s="104"/>
     </row>
-    <row r="29" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="29" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="2"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
@@ -3608,19 +4354,19 @@
       <c r="I29" s="103"/>
       <c r="J29" s="104"/>
     </row>
-    <row r="30" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="30" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D30" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="69"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
       <c r="I30" s="105"/>
       <c r="J30" s="106"/>
     </row>
-    <row r="31" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="32" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="31" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" s="128" t="s">
         <v>21</v>
       </c>
@@ -3631,8 +4377,8 @@
       <c r="I32" s="129"/>
       <c r="J32" s="130"/>
     </row>
-    <row r="34" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="35" spans="4:10" ht="45.6" customHeight="1" thickBot="1">
+    <row r="34" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="4:10" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D35" s="131" t="s">
         <v>78</v>
       </c>
@@ -3643,14 +4389,14 @@
       <c r="I35" s="132"/>
       <c r="J35" s="133"/>
     </row>
-    <row r="37" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
+    <row r="37" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3680,54 +4426,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0226430-866E-43EE-9563-A24E3CC54A8A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D2:J33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="60.85546875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="24.95" customHeight="1">
+    <row r="2" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="72" t="s">
+    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
-    </row>
-    <row r="5" spans="4:10" ht="24.95" customHeight="1">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
+    </row>
+    <row r="5" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="I5" s="115" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="116"/>
     </row>
-    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="2"/>
       <c r="I6" s="103"/>
       <c r="J6" s="104"/>
     </row>
-    <row r="7" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="7" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>219</v>
       </c>
@@ -3740,7 +4486,7 @@
       <c r="I7" s="103"/>
       <c r="J7" s="104"/>
     </row>
-    <row r="8" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="8" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="2"/>
       <c r="E8" s="52"/>
       <c r="F8" s="52"/>
@@ -3749,7 +4495,7 @@
       <c r="I8" s="103"/>
       <c r="J8" s="104"/>
     </row>
-    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>220</v>
       </c>
@@ -3762,7 +4508,7 @@
       <c r="I9" s="103"/>
       <c r="J9" s="104"/>
     </row>
-    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="52"/>
       <c r="F10" s="52"/>
@@ -3771,7 +4517,7 @@
       <c r="I10" s="103"/>
       <c r="J10" s="104"/>
     </row>
-    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
         <v>221</v>
       </c>
@@ -3784,7 +4530,7 @@
       <c r="I11" s="103"/>
       <c r="J11" s="104"/>
     </row>
-    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="86" t="s">
         <v>212</v>
@@ -3795,7 +4541,7 @@
       <c r="I12" s="103"/>
       <c r="J12" s="104"/>
     </row>
-    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="86" t="s">
         <v>158</v>
@@ -3806,7 +4552,7 @@
       <c r="I13" s="103"/>
       <c r="J13" s="104"/>
     </row>
-    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="52"/>
       <c r="F14" s="52"/>
@@ -3815,7 +4561,7 @@
       <c r="I14" s="103"/>
       <c r="J14" s="104"/>
     </row>
-    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
@@ -3828,7 +4574,7 @@
       <c r="I15" s="103"/>
       <c r="J15" s="104"/>
     </row>
-    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="52"/>
       <c r="F16" s="52"/>
@@ -3837,20 +4583,20 @@
       <c r="I16" s="103"/>
       <c r="J16" s="104"/>
     </row>
-    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="142" t="s">
+      <c r="E17" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="144"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="141"/>
       <c r="I17" s="103"/>
       <c r="J17" s="104"/>
     </row>
-    <row r="18" spans="4:10" ht="24.95" customHeight="1">
+    <row r="18" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="52"/>
       <c r="F18" s="52"/>
@@ -3859,7 +4605,7 @@
       <c r="I18" s="103"/>
       <c r="J18" s="104"/>
     </row>
-    <row r="19" spans="4:10" ht="24.95" customHeight="1">
+    <row r="19" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="2" t="s">
         <v>218</v>
       </c>
@@ -3874,12 +4620,12 @@
       <c r="I19" s="103"/>
       <c r="J19" s="104"/>
     </row>
-    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
       <c r="I20" s="103"/>
       <c r="J20" s="104"/>
     </row>
-    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="2" t="s">
         <v>19</v>
       </c>
@@ -3892,7 +4638,7 @@
       <c r="I21" s="103"/>
       <c r="J21" s="104"/>
     </row>
-    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="2"/>
       <c r="E22" s="86" t="s">
         <v>168</v>
@@ -3903,7 +4649,7 @@
       <c r="I22" s="103"/>
       <c r="J22" s="104"/>
     </row>
-    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="2"/>
       <c r="E23" s="86" t="s">
         <v>169</v>
@@ -3914,12 +4660,12 @@
       <c r="I23" s="103"/>
       <c r="J23" s="104"/>
     </row>
-    <row r="24" spans="4:10" ht="24.95" customHeight="1">
+    <row r="24" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
       <c r="I24" s="103"/>
       <c r="J24" s="104"/>
     </row>
-    <row r="25" spans="4:10" ht="24.95" customHeight="1">
+    <row r="25" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="2" t="s">
         <v>77</v>
       </c>
@@ -3934,7 +4680,7 @@
       <c r="I25" s="103"/>
       <c r="J25" s="104"/>
     </row>
-    <row r="26" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="26" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="2"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
@@ -3943,71 +4689,69 @@
       <c r="I26" s="103"/>
       <c r="J26" s="104"/>
     </row>
-    <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E27" s="69" t="s">
+      <c r="E27" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="70"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="72"/>
       <c r="I27" s="103"/>
       <c r="J27" s="104"/>
     </row>
-    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="2"/>
       <c r="I28" s="103"/>
       <c r="J28" s="104"/>
     </row>
-    <row r="29" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="29" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="139"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="141"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="144"/>
       <c r="I29" s="103"/>
       <c r="J29" s="104"/>
     </row>
-    <row r="30" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="30" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
       <c r="I30" s="103"/>
       <c r="J30" s="104"/>
     </row>
-    <row r="31" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="31" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="69"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="103"/>
       <c r="J31" s="104"/>
     </row>
-    <row r="32" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="32" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" s="2"/>
       <c r="I32" s="103"/>
       <c r="J32" s="104"/>
     </row>
-    <row r="33" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="33" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D33" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="69"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="72"/>
       <c r="I33" s="105"/>
       <c r="J33" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="E27:H27"/>
     <mergeCell ref="E22:H22"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="E29:H29"/>
@@ -4026,6 +4770,8 @@
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E27:H27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4033,18 +4779,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F9FDC9-9F22-433A-A9AD-B2F2CC8D8ABD}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D2:J43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="60.28515625" style="1" customWidth="1"/>
@@ -4053,24 +4799,24 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="24.95" customHeight="1">
+    <row r="2" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="72" t="s">
+    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
-    </row>
-    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
+    </row>
+    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
@@ -4079,20 +4825,20 @@
       <c r="I5" s="103"/>
       <c r="J5" s="104"/>
     </row>
-    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="70"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="72"/>
       <c r="I6" s="103"/>
       <c r="J6" s="104"/>
     </row>
-    <row r="7" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="7" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="2"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
@@ -4101,22 +4847,22 @@
       <c r="I7" s="103"/>
       <c r="J7" s="104"/>
     </row>
-    <row r="8" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="8" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="69" t="s">
+      <c r="F8" s="71"/>
+      <c r="G8" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="81"/>
+      <c r="H8" s="71"/>
       <c r="I8" s="103"/>
       <c r="J8" s="104"/>
     </row>
-    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="2"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -4125,7 +4871,7 @@
       <c r="I9" s="103"/>
       <c r="J9" s="104"/>
     </row>
-    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
         <v>63</v>
       </c>
@@ -4136,7 +4882,7 @@
       <c r="I10" s="103"/>
       <c r="J10" s="104"/>
     </row>
-    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
@@ -4145,7 +4891,7 @@
       <c r="I11" s="103"/>
       <c r="J11" s="104"/>
     </row>
-    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
@@ -4156,7 +4902,7 @@
       <c r="I12" s="103"/>
       <c r="J12" s="104"/>
     </row>
-    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
@@ -4165,7 +4911,7 @@
       <c r="I13" s="103"/>
       <c r="J13" s="104"/>
     </row>
-    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
         <v>52</v>
       </c>
@@ -4178,7 +4924,7 @@
       <c r="I14" s="103"/>
       <c r="J14" s="104"/>
     </row>
-    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="12"/>
       <c r="F15" s="13"/>
@@ -4187,20 +4933,20 @@
       <c r="I15" s="103"/>
       <c r="J15" s="104"/>
     </row>
-    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="70"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="72"/>
       <c r="I16" s="103"/>
       <c r="J16" s="104"/>
     </row>
-    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -4209,20 +4955,20 @@
       <c r="I17" s="103"/>
       <c r="J17" s="104"/>
     </row>
-    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="70"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="72"/>
       <c r="I18" s="103"/>
       <c r="J18" s="104"/>
     </row>
-    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -4231,7 +4977,7 @@
       <c r="I19" s="103"/>
       <c r="J19" s="104"/>
     </row>
-    <row r="20" spans="4:10" ht="38.450000000000003" customHeight="1" thickBot="1">
+    <row r="20" spans="4:10" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="2" t="s">
         <v>59</v>
       </c>
@@ -4244,7 +4990,7 @@
       <c r="I20" s="103"/>
       <c r="J20" s="104"/>
     </row>
-    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
@@ -4253,7 +4999,7 @@
       <c r="I21" s="103"/>
       <c r="J21" s="104"/>
     </row>
-    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="2" t="s">
         <v>54</v>
       </c>
@@ -4272,16 +5018,16 @@
       <c r="I22" s="103"/>
       <c r="J22" s="104"/>
     </row>
-    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="2"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="72"/>
       <c r="I23" s="103"/>
       <c r="J23" s="104"/>
     </row>
-    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="2" t="s">
         <v>161</v>
       </c>
@@ -4292,7 +5038,7 @@
       <c r="I24" s="103"/>
       <c r="J24" s="104"/>
     </row>
-    <row r="25" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="25" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D25" s="2"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
@@ -4301,7 +5047,7 @@
       <c r="I25" s="103"/>
       <c r="J25" s="104"/>
     </row>
-    <row r="26" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="26" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="2" t="s">
         <v>64</v>
       </c>
@@ -4314,7 +5060,7 @@
       <c r="I26" s="103"/>
       <c r="J26" s="104"/>
     </row>
-    <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="2"/>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
@@ -4323,7 +5069,7 @@
       <c r="I27" s="103"/>
       <c r="J27" s="104"/>
     </row>
-    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="2" t="s">
         <v>60</v>
       </c>
@@ -4336,7 +5082,7 @@
       <c r="I28" s="103"/>
       <c r="J28" s="104"/>
     </row>
-    <row r="29" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="29" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="2"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
@@ -4345,7 +5091,7 @@
       <c r="I29" s="103"/>
       <c r="J29" s="104"/>
     </row>
-    <row r="30" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="30" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D30" s="2" t="s">
         <v>66</v>
       </c>
@@ -4358,7 +5104,7 @@
       <c r="I30" s="103"/>
       <c r="J30" s="104"/>
     </row>
-    <row r="31" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="31" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" s="2"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
@@ -4367,7 +5113,7 @@
       <c r="I31" s="103"/>
       <c r="J31" s="104"/>
     </row>
-    <row r="32" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="32" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" s="2" t="s">
         <v>75</v>
       </c>
@@ -4378,7 +5124,7 @@
       <c r="I32" s="103"/>
       <c r="J32" s="104"/>
     </row>
-    <row r="33" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="33" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D33" s="2"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -4387,7 +5133,7 @@
       <c r="I33" s="103"/>
       <c r="J33" s="104"/>
     </row>
-    <row r="34" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="34" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D34" s="2" t="s">
         <v>76</v>
       </c>
@@ -4398,7 +5144,7 @@
       <c r="I34" s="103"/>
       <c r="J34" s="104"/>
     </row>
-    <row r="35" spans="4:10" ht="24.95" customHeight="1">
+    <row r="35" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
@@ -4407,7 +5153,7 @@
       <c r="I35" s="103"/>
       <c r="J35" s="104"/>
     </row>
-    <row r="36" spans="4:10" ht="24.95" customHeight="1">
+    <row r="36" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
         <v>77</v>
       </c>
@@ -4422,7 +5168,7 @@
       <c r="I36" s="117"/>
       <c r="J36" s="104"/>
     </row>
-    <row r="37" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="37" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D37" s="2"/>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
@@ -4431,20 +5177,20 @@
       <c r="I37" s="103"/>
       <c r="J37" s="104"/>
     </row>
-    <row r="38" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="38" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D38" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E38" s="69" t="s">
+      <c r="E38" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="70"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="72"/>
       <c r="I38" s="103"/>
       <c r="J38" s="104"/>
     </row>
-    <row r="39" spans="4:10" ht="24.95" customHeight="1">
+    <row r="39" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="2"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
@@ -4453,7 +5199,7 @@
       <c r="I39" s="103"/>
       <c r="J39" s="104"/>
     </row>
-    <row r="40" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="40" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D40" s="2"/>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
@@ -4462,19 +5208,19 @@
       <c r="I40" s="103"/>
       <c r="J40" s="104"/>
     </row>
-    <row r="41" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="41" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D41" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="69"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="72"/>
       <c r="I41" s="105"/>
       <c r="J41" s="106"/>
     </row>
-    <row r="42" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="43" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="42" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D43" s="128" t="s">
         <v>21</v>
       </c>
@@ -4517,18 +5263,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2B1D8B-B84C-4B99-8A9C-ACED5A96260D}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="E2:K23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:K17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="73" style="1" customWidth="1"/>
@@ -4536,28 +5282,28 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:11" ht="24.95" customHeight="1">
+    <row r="2" spans="5:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="5:11" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="4" spans="5:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="E4" s="72" t="s">
+    <row r="3" spans="5:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="5:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="74"/>
-    </row>
-    <row r="5" spans="5:11" ht="24.95" customHeight="1" thickBot="1">
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
+    </row>
+    <row r="5" spans="5:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5" s="2"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="5:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="6" spans="5:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="4" t="s">
         <v>2</v>
       </c>
@@ -4569,7 +5315,7 @@
       <c r="J6" s="96"/>
       <c r="K6" s="97"/>
     </row>
-    <row r="7" spans="5:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="7" spans="5:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="5"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -4577,7 +5323,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="5:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="8" spans="5:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
@@ -4587,7 +5333,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="97"/>
     </row>
-    <row r="9" spans="5:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="9" spans="5:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="5"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -4595,7 +5341,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="5:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="10" spans="5:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4607,7 +5353,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="97"/>
     </row>
-    <row r="11" spans="5:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="11" spans="5:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="5"/>
       <c r="G11" s="95" t="s">
         <v>157</v>
@@ -4617,7 +5363,7 @@
       <c r="J11" s="96"/>
       <c r="K11" s="97"/>
     </row>
-    <row r="12" spans="5:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="12" spans="5:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="5"/>
       <c r="G12" s="95" t="s">
         <v>163</v>
@@ -4627,7 +5373,7 @@
       <c r="J12" s="96"/>
       <c r="K12" s="97"/>
     </row>
-    <row r="13" spans="5:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="13" spans="5:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="5"/>
       <c r="G13" s="95" t="s">
         <v>160</v>
@@ -4637,7 +5383,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="97"/>
     </row>
-    <row r="14" spans="5:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="14" spans="5:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="5"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
@@ -4645,7 +5391,7 @@
       <c r="J14" s="37"/>
       <c r="K14" s="38"/>
     </row>
-    <row r="15" spans="5:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="15" spans="5:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="5" t="s">
         <v>6</v>
       </c>
@@ -4655,7 +5401,7 @@
       <c r="J15" s="96"/>
       <c r="K15" s="97"/>
     </row>
-    <row r="16" spans="5:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="16" spans="5:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="5"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -4663,7 +5409,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="5:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="17" spans="5:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" s="5" t="s">
         <v>7</v>
       </c>
@@ -4673,7 +5419,7 @@
       <c r="J17" s="96"/>
       <c r="K17" s="97"/>
     </row>
-    <row r="18" spans="5:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="18" spans="5:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="5"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -4681,7 +5427,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="5:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="19" spans="5:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="5" t="s">
         <v>8</v>
       </c>
@@ -4693,7 +5439,7 @@
       <c r="J19" s="96"/>
       <c r="K19" s="97"/>
     </row>
-    <row r="20" spans="5:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="20" spans="5:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="5"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -4701,7 +5447,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="5:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="21" spans="5:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="5" t="s">
         <v>10</v>
       </c>
@@ -4713,11 +5459,11 @@
       <c r="J21" s="96"/>
       <c r="K21" s="97"/>
     </row>
-    <row r="22" spans="5:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="22" spans="5:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="5"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="5:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="23" spans="5:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="8" t="s">
         <v>12</v>
       </c>
@@ -4749,103 +5495,109 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6271134E-038C-4D55-8DD4-D98E650E5792}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="D2:J39"/>
+  <dimension ref="D2:J38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="60.85546875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="24.95" customHeight="1">
+    <row r="2" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="72" t="s">
+    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
-    </row>
-    <row r="5" spans="4:10" ht="24.95" customHeight="1">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
+    </row>
+    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
       <c r="I5" s="115" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="116"/>
     </row>
-    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D6" s="2"/>
+    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="97"/>
       <c r="I6" s="103"/>
       <c r="J6" s="104"/>
     </row>
-    <row r="7" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D7" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E7" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="97"/>
+    <row r="7" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="103"/>
       <c r="J7" s="104"/>
     </row>
-    <row r="8" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D8" s="2"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
+    <row r="8" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" s="95" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="97"/>
       <c r="I8" s="103"/>
       <c r="J8" s="104"/>
     </row>
-    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D9" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" s="95" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="97"/>
+    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
       <c r="I9" s="103"/>
       <c r="J9" s="104"/>
     </row>
-    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D10" s="2"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="88"/>
       <c r="I10" s="103"/>
       <c r="J10" s="104"/>
     </row>
-    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D11" s="2" t="s">
-        <v>228</v>
-      </c>
+    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
       <c r="E11" s="86" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87"/>
@@ -4853,10 +5605,10 @@
       <c r="I11" s="103"/>
       <c r="J11" s="104"/>
     </row>
-    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="86" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="F12" s="87"/>
       <c r="G12" s="87"/>
@@ -4864,76 +5616,76 @@
       <c r="I12" s="103"/>
       <c r="J12" s="104"/>
     </row>
-    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
-      <c r="E13" s="86" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="88"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
       <c r="I13" s="103"/>
       <c r="J13" s="104"/>
     </row>
-    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D14" s="2"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
+    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="97"/>
       <c r="I14" s="103"/>
       <c r="J14" s="104"/>
     </row>
-    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="95" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
+    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
       <c r="I15" s="103"/>
       <c r="J15" s="104"/>
     </row>
-    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D16" s="2"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
+    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="141"/>
       <c r="I16" s="103"/>
       <c r="J16" s="104"/>
     </row>
-    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D17" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="142" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="144"/>
+    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="2"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
       <c r="I17" s="103"/>
       <c r="J17" s="104"/>
     </row>
-    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D18" s="2"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="86" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="88"/>
       <c r="I18" s="103"/>
       <c r="J18" s="104"/>
     </row>
-    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D19" s="2" t="s">
-        <v>19</v>
-      </c>
+    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="2"/>
       <c r="E19" s="86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F19" s="87"/>
       <c r="G19" s="87"/>
@@ -4941,10 +5693,10 @@
       <c r="I19" s="103"/>
       <c r="J19" s="104"/>
     </row>
-    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
       <c r="E20" s="86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F20" s="87"/>
       <c r="G20" s="87"/>
@@ -4952,162 +5704,151 @@
       <c r="I20" s="103"/>
       <c r="J20" s="104"/>
     </row>
-    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
-      <c r="E21" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="88"/>
       <c r="I21" s="103"/>
       <c r="J21" s="104"/>
     </row>
-    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D22" s="2"/>
+    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="142"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="144"/>
       <c r="I22" s="103"/>
       <c r="J22" s="104"/>
     </row>
-    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="139"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="141"/>
+    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="2"/>
       <c r="I23" s="103"/>
       <c r="J23" s="104"/>
     </row>
-    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D24" s="2"/>
+    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="72"/>
       <c r="I24" s="103"/>
       <c r="J24" s="104"/>
     </row>
-    <row r="25" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="69"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="70"/>
+    <row r="25" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
       <c r="I25" s="103"/>
       <c r="J25" s="104"/>
     </row>
-    <row r="26" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D26" s="2"/>
+    <row r="26" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="98"/>
       <c r="I26" s="103"/>
       <c r="J26" s="104"/>
     </row>
-    <row r="27" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="98" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="98"/>
+    <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="2"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="103"/>
       <c r="J27" s="104"/>
     </row>
-    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D28" s="2"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="72"/>
       <c r="I28" s="103"/>
       <c r="J28" s="104"/>
     </row>
-    <row r="29" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D29" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="70"/>
+    <row r="29" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="2"/>
       <c r="I29" s="103"/>
       <c r="J29" s="104"/>
     </row>
-    <row r="30" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D30" s="2"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="104"/>
-    </row>
-    <row r="31" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D31" s="10" t="s">
+    <row r="30" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="69"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="106"/>
-    </row>
-    <row r="33" spans="4:4" ht="24.95" customHeight="1">
-      <c r="D33" s="46" t="s">
+      <c r="E30" s="70"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="106"/>
+    </row>
+    <row r="32" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="46" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="4:4" ht="24.95" customHeight="1">
+    <row r="33" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" ht="24.95" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" ht="24.95" customHeight="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" ht="24.95" customHeight="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" ht="24.95" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4" ht="24.95" customHeight="1">
-      <c r="D39" s="28" t="s">
         <v>175</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="D4:J4"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I5:J30"/>
     <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I5:J31"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E14:H14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.31496062992126" top="0.15748031496063" bottom="0.15748031496063" header="0.31496062992126" footer="0.31496062992126"/>
@@ -5115,42 +5856,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B0B74D-36C0-450A-B030-F9FEA57D0C18}">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D2:J38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="60.85546875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="24.95" customHeight="1">
+    <row r="2" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="72" t="s">
+    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
-    </row>
-    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
+    </row>
+    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="64"/>
       <c r="E5" s="54"/>
       <c r="F5" s="54"/>
@@ -5159,7 +5900,7 @@
       <c r="I5" s="154"/>
       <c r="J5" s="155"/>
     </row>
-    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
@@ -5172,7 +5913,7 @@
       <c r="I6" s="156"/>
       <c r="J6" s="157"/>
     </row>
-    <row r="7" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="7" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="2"/>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
@@ -5181,7 +5922,7 @@
       <c r="I7" s="156"/>
       <c r="J7" s="157"/>
     </row>
-    <row r="8" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="8" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
         <v>178</v>
       </c>
@@ -5194,7 +5935,7 @@
       <c r="I8" s="156"/>
       <c r="J8" s="157"/>
     </row>
-    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="2"/>
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
@@ -5203,7 +5944,7 @@
       <c r="I9" s="156"/>
       <c r="J9" s="157"/>
     </row>
-    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
         <v>210</v>
       </c>
@@ -5216,7 +5957,7 @@
       <c r="I10" s="156"/>
       <c r="J10" s="157"/>
     </row>
-    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="86" t="s">
         <v>212</v>
@@ -5227,7 +5968,7 @@
       <c r="I11" s="156"/>
       <c r="J11" s="157"/>
     </row>
-    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="86" t="s">
         <v>158</v>
@@ -5238,7 +5979,7 @@
       <c r="I12" s="156"/>
       <c r="J12" s="157"/>
     </row>
-    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="52"/>
       <c r="F13" s="52"/>
@@ -5247,20 +5988,20 @@
       <c r="I13" s="156"/>
       <c r="J13" s="157"/>
     </row>
-    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E14" s="142" t="s">
+      <c r="E14" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
       <c r="I14" s="156"/>
       <c r="J14" s="157"/>
     </row>
-    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -5269,7 +6010,7 @@
       <c r="I15" s="156"/>
       <c r="J15" s="157"/>
     </row>
-    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
@@ -5282,12 +6023,12 @@
       <c r="I16" s="156"/>
       <c r="J16" s="157"/>
     </row>
-    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="I17" s="156"/>
       <c r="J17" s="157"/>
     </row>
-    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
         <v>19</v>
       </c>
@@ -5300,7 +6041,7 @@
       <c r="I18" s="156"/>
       <c r="J18" s="157"/>
     </row>
-    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
       <c r="E19" s="86" t="s">
         <v>168</v>
@@ -5311,7 +6052,7 @@
       <c r="I19" s="156"/>
       <c r="J19" s="157"/>
     </row>
-    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
       <c r="E20" s="86" t="s">
         <v>169</v>
@@ -5322,44 +6063,44 @@
       <c r="I20" s="156"/>
       <c r="J20" s="157"/>
     </row>
-    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
       <c r="I21" s="156"/>
       <c r="J21" s="157"/>
     </row>
-    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="139"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="140"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
       <c r="I22" s="156"/>
       <c r="J22" s="157"/>
     </row>
-    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="2"/>
       <c r="I23" s="156"/>
       <c r="J23" s="157"/>
     </row>
-    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="69"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
       <c r="I24" s="156"/>
       <c r="J24" s="157"/>
     </row>
-    <row r="25" spans="4:10" ht="24.95" customHeight="1">
+    <row r="25" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
       <c r="I25" s="156"/>
       <c r="J25" s="157"/>
     </row>
-    <row r="26" spans="4:10" ht="24.95" customHeight="1">
+    <row r="26" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
         <v>143</v>
       </c>
@@ -5374,7 +6115,7 @@
       <c r="I26" s="156"/>
       <c r="J26" s="157"/>
     </row>
-    <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="2"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
@@ -5383,66 +6124,66 @@
       <c r="I27" s="156"/>
       <c r="J27" s="157"/>
     </row>
-    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E28" s="69" t="s">
+      <c r="E28" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
       <c r="I28" s="156"/>
       <c r="J28" s="157"/>
     </row>
-    <row r="29" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="29" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="2"/>
       <c r="I29" s="156"/>
       <c r="J29" s="157"/>
     </row>
-    <row r="30" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="30" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D30" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="69"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
       <c r="I30" s="158"/>
       <c r="J30" s="159"/>
     </row>
-    <row r="32" spans="4:10" ht="24.95" customHeight="1">
+    <row r="32" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="46" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="4:4" ht="24.95" customHeight="1">
+    <row r="33" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="4:4" ht="24.95" customHeight="1">
+    <row r="34" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="28" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="4:4" ht="24.95" customHeight="1">
+    <row r="35" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="28" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="4:4" ht="24.95" customHeight="1">
+    <row r="36" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="28" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="4:4" ht="24.95" customHeight="1">
+    <row r="37" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="28" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="4:4" ht="24.95" customHeight="1">
+    <row r="38" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="28" t="s">
         <v>175</v>
       </c>
@@ -5474,43 +6215,267 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176F34F4-D4B5-40AE-898E-3C021A569003}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="D2:H29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="60.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
+    </row>
+    <row r="5" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+    </row>
+    <row r="7" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
+    </row>
+    <row r="9" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+    </row>
+    <row r="11" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="2"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="72"/>
+    </row>
+    <row r="23" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="47" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="28" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="28" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="28" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="28" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E10:H10"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.118110236220472" right="0.31496062992126" top="0.15748031496063" bottom="0.15748031496063" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup scale="91" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC123C5A-D3C6-4FF9-B67B-1D3D2AEAA1BE}">
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D2:K28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="55.5703125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:11" ht="24.95" customHeight="1">
+    <row r="2" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="4:11" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="4" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="72" t="s">
+    <row r="3" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="74"/>
-    </row>
-    <row r="5" spans="4:11" ht="24.95" customHeight="1">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
+    </row>
+    <row r="5" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="I5" s="166" t="s">
         <v>28</v>
@@ -5518,49 +6483,49 @@
       <c r="J5" s="167"/>
       <c r="K5" s="168"/>
     </row>
-    <row r="6" spans="4:11" ht="24.95" customHeight="1">
+    <row r="6" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="I6" s="169"/>
       <c r="J6" s="170"/>
       <c r="K6" s="171"/>
     </row>
-    <row r="7" spans="4:11" ht="24.95" customHeight="1">
+    <row r="7" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="175"/>
       <c r="I7" s="169"/>
       <c r="J7" s="170"/>
       <c r="K7" s="171"/>
     </row>
-    <row r="8" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="8" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="2"/>
       <c r="I8" s="169"/>
       <c r="J8" s="170"/>
       <c r="K8" s="171"/>
     </row>
-    <row r="9" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="9" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="72"/>
       <c r="I9" s="169"/>
       <c r="J9" s="170"/>
       <c r="K9" s="171"/>
     </row>
-    <row r="10" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="10" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="I10" s="169"/>
       <c r="J10" s="170"/>
       <c r="K10" s="171"/>
     </row>
-    <row r="11" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="11" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
@@ -5574,13 +6539,13 @@
       <c r="J11" s="170"/>
       <c r="K11" s="171"/>
     </row>
-    <row r="12" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="12" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="I12" s="169"/>
       <c r="J12" s="170"/>
       <c r="K12" s="171"/>
     </row>
-    <row r="13" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="13" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="17" t="s">
         <v>35</v>
       </c>
@@ -5594,7 +6559,7 @@
       <c r="J13" s="170"/>
       <c r="K13" s="171"/>
     </row>
-    <row r="14" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="14" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="12"/>
       <c r="G14" s="13"/>
@@ -5602,7 +6567,7 @@
       <c r="J14" s="170"/>
       <c r="K14" s="171"/>
     </row>
-    <row r="15" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="15" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
@@ -5614,13 +6579,13 @@
       <c r="J15" s="170"/>
       <c r="K15" s="171"/>
     </row>
-    <row r="16" spans="4:11" ht="24.95" customHeight="1">
+    <row r="16" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="I16" s="169"/>
       <c r="J16" s="170"/>
       <c r="K16" s="171"/>
     </row>
-    <row r="17" spans="4:11" ht="24.95" customHeight="1">
+    <row r="17" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
         <v>143</v>
       </c>
@@ -5636,7 +6601,7 @@
       <c r="J17" s="170"/>
       <c r="K17" s="171"/>
     </row>
-    <row r="18" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="18" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -5646,33 +6611,33 @@
       <c r="J18" s="170"/>
       <c r="K18" s="171"/>
     </row>
-    <row r="19" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="19" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D19" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="69" t="s">
+      <c r="E19" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="70"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="72"/>
       <c r="I19" s="169"/>
       <c r="J19" s="170"/>
       <c r="K19" s="171"/>
     </row>
-    <row r="20" spans="4:11" ht="24.95" customHeight="1">
+    <row r="20" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="I20" s="169"/>
       <c r="J20" s="170"/>
       <c r="K20" s="171"/>
     </row>
-    <row r="21" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="21" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
       <c r="I21" s="169"/>
       <c r="J21" s="170"/>
       <c r="K21" s="171"/>
     </row>
-    <row r="22" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="22" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="10" t="s">
         <v>37</v>
       </c>
@@ -5684,8 +6649,8 @@
       <c r="J22" s="173"/>
       <c r="K22" s="174"/>
     </row>
-    <row r="23" spans="4:11" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="24" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="23" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="160" t="s">
         <v>38</v>
       </c>
@@ -5697,8 +6662,8 @@
       <c r="J24" s="161"/>
       <c r="K24" s="162"/>
     </row>
-    <row r="25" spans="4:11" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="26" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="25" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="145" t="s">
         <v>39</v>
       </c>
@@ -5710,8 +6675,8 @@
       <c r="J26" s="146"/>
       <c r="K26" s="147"/>
     </row>
-    <row r="27" spans="4:11" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="28" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="27" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="163" t="s">
         <v>40</v>
       </c>
@@ -5744,43 +6709,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D024282-9D4A-4026-8765-C11D3662BAF9}">
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D2:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="55.5703125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:11" ht="24.95" customHeight="1">
+    <row r="2" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="4:11" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="4" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="72" t="s">
+    <row r="3" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="74"/>
-    </row>
-    <row r="5" spans="4:11" ht="24.95" customHeight="1">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
+    </row>
+    <row r="5" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="I5" s="103" t="s">
         <v>28</v>
@@ -5788,49 +6753,49 @@
       <c r="J5" s="179"/>
       <c r="K5" s="104"/>
     </row>
-    <row r="6" spans="4:11" ht="24.95" customHeight="1">
+    <row r="6" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="I6" s="103"/>
       <c r="J6" s="179"/>
       <c r="K6" s="104"/>
     </row>
-    <row r="7" spans="4:11" ht="24.95" customHeight="1">
+    <row r="7" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
       <c r="I7" s="103"/>
       <c r="J7" s="179"/>
       <c r="K7" s="104"/>
     </row>
-    <row r="8" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="8" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="2"/>
       <c r="I8" s="103"/>
       <c r="J8" s="179"/>
       <c r="K8" s="104"/>
     </row>
-    <row r="9" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="9" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="72"/>
       <c r="I9" s="103"/>
       <c r="J9" s="179"/>
       <c r="K9" s="104"/>
     </row>
-    <row r="10" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="10" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="I10" s="103"/>
       <c r="J10" s="179"/>
       <c r="K10" s="104"/>
     </row>
-    <row r="11" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="11" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
@@ -5844,19 +6809,19 @@
       <c r="J11" s="179"/>
       <c r="K11" s="104"/>
     </row>
-    <row r="12" spans="4:11" ht="24.95" customHeight="1">
+    <row r="12" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="I12" s="103"/>
       <c r="J12" s="179"/>
       <c r="K12" s="104"/>
     </row>
-    <row r="13" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="13" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="I13" s="103"/>
       <c r="J13" s="179"/>
       <c r="K13" s="104"/>
     </row>
-    <row r="14" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="14" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="17" t="s">
         <v>35</v>
       </c>
@@ -5870,7 +6835,7 @@
       <c r="J14" s="179"/>
       <c r="K14" s="104"/>
     </row>
-    <row r="15" spans="4:11" ht="24.95" customHeight="1">
+    <row r="15" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="30"/>
       <c r="G15" s="30"/>
@@ -5878,7 +6843,7 @@
       <c r="J15" s="179"/>
       <c r="K15" s="104"/>
     </row>
-    <row r="16" spans="4:11" ht="24.95" customHeight="1">
+    <row r="16" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="2" t="s">
         <v>143</v>
       </c>
@@ -5894,7 +6859,7 @@
       <c r="J16" s="179"/>
       <c r="K16" s="104"/>
     </row>
-    <row r="17" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="17" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -5904,33 +6869,33 @@
       <c r="J17" s="179"/>
       <c r="K17" s="104"/>
     </row>
-    <row r="18" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="18" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="70"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="72"/>
       <c r="I18" s="103"/>
       <c r="J18" s="179"/>
       <c r="K18" s="104"/>
     </row>
-    <row r="19" spans="4:11" ht="24.95" customHeight="1">
+    <row r="19" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="I19" s="103"/>
       <c r="J19" s="179"/>
       <c r="K19" s="104"/>
     </row>
-    <row r="20" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="20" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
       <c r="I20" s="103"/>
       <c r="J20" s="179"/>
       <c r="K20" s="104"/>
     </row>
-    <row r="21" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="21" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="10" t="s">
         <v>37</v>
       </c>
@@ -5942,8 +6907,8 @@
       <c r="J21" s="180"/>
       <c r="K21" s="106"/>
     </row>
-    <row r="22" spans="4:11" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="23" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="22" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="184" t="s">
         <v>38</v>
       </c>
@@ -5955,7 +6920,7 @@
       <c r="J23" s="185"/>
       <c r="K23" s="186"/>
     </row>
-    <row r="24" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="24" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -5965,7 +6930,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="25" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D25" s="163" t="s">
         <v>40</v>
       </c>
@@ -5996,245 +6961,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="D2:H24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
-  <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="60.28515625" style="1" customWidth="1"/>
-    <col min="5" max="8" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D2" s="71" t="s">
-        <v>286</v>
-      </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-    </row>
-    <row r="3" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D3" s="72" t="s">
-        <v>288</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
-    </row>
-    <row r="4" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="2"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D5" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="74"/>
-    </row>
-    <row r="6" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D6" s="2"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D7" s="2"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D8" s="63" t="s">
-        <v>287</v>
-      </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="80"/>
-    </row>
-    <row r="9" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D9" s="63"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D10" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E10" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="70"/>
-    </row>
-    <row r="11" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D11" s="2"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D12" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="70"/>
-    </row>
-    <row r="13" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D13" s="2"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D14" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E14" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="70"/>
-    </row>
-    <row r="15" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D15" s="2"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D16" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E16" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="70"/>
-    </row>
-    <row r="17" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D17" s="2"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D18" s="2"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="4:8" ht="45.6" customHeight="1" thickBot="1">
-      <c r="D19" s="2"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="69"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="70"/>
-    </row>
-    <row r="21" spans="4:8" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="22" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D22" s="65" t="s">
-        <v>274</v>
-      </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="67"/>
-    </row>
-    <row r="24" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.118110236220472" right="0.31496062992126" top="0.15748031496063" bottom="0.15748031496063" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup scale="98" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591B2446-DEC3-4085-ACA6-D9D7084D3418}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="C2:K47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="55.5703125" style="1" customWidth="1"/>
@@ -6245,25 +6983,25 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:11" ht="24.95" customHeight="1">
+    <row r="2" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="4:11" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="4" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="72" t="s">
+    <row r="3" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="74"/>
-    </row>
-    <row r="5" spans="4:11" ht="24.95" customHeight="1">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
+    </row>
+    <row r="5" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="I5" s="103" t="s">
         <v>113</v>
@@ -6271,33 +7009,33 @@
       <c r="J5" s="179"/>
       <c r="K5" s="104"/>
     </row>
-    <row r="6" spans="4:11" ht="24.95" customHeight="1">
+    <row r="6" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="I6" s="103"/>
       <c r="J6" s="179"/>
       <c r="K6" s="104"/>
     </row>
-    <row r="7" spans="4:11" ht="24.95" customHeight="1">
+    <row r="7" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
       <c r="I7" s="103"/>
       <c r="J7" s="179"/>
       <c r="K7" s="104"/>
     </row>
-    <row r="8" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="8" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="2"/>
       <c r="I8" s="103"/>
       <c r="J8" s="179"/>
       <c r="K8" s="104"/>
     </row>
-    <row r="9" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="9" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>98</v>
       </c>
@@ -6310,13 +7048,13 @@
       <c r="J9" s="179"/>
       <c r="K9" s="104"/>
     </row>
-    <row r="10" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="10" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="I10" s="103"/>
       <c r="J10" s="179"/>
       <c r="K10" s="104"/>
     </row>
-    <row r="11" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="11" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
         <v>111</v>
       </c>
@@ -6336,13 +7074,13 @@
       <c r="J11" s="179"/>
       <c r="K11" s="104"/>
     </row>
-    <row r="12" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="12" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="I12" s="103"/>
       <c r="J12" s="179"/>
       <c r="K12" s="104"/>
     </row>
-    <row r="13" spans="4:11" ht="24.95" customHeight="1">
+    <row r="13" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="31" t="s">
         <v>114</v>
       </c>
@@ -6353,7 +7091,7 @@
       <c r="J13" s="179"/>
       <c r="K13" s="104"/>
     </row>
-    <row r="14" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="14" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="32" t="s">
         <v>115</v>
       </c>
@@ -6366,13 +7104,13 @@
       <c r="J14" s="179"/>
       <c r="K14" s="104"/>
     </row>
-    <row r="15" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="15" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="I15" s="103"/>
       <c r="J15" s="179"/>
       <c r="K15" s="104"/>
     </row>
-    <row r="16" spans="4:11" ht="24.95" customHeight="1">
+    <row r="16" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="33" t="s">
         <v>119</v>
       </c>
@@ -6383,7 +7121,7 @@
       <c r="J16" s="179"/>
       <c r="K16" s="104"/>
     </row>
-    <row r="17" spans="4:11" ht="24.95" customHeight="1">
+    <row r="17" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="36" t="s">
         <v>120</v>
       </c>
@@ -6396,7 +7134,7 @@
       <c r="J17" s="179"/>
       <c r="K17" s="104"/>
     </row>
-    <row r="18" spans="4:11" ht="24.95" customHeight="1">
+    <row r="18" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="29" t="s">
         <v>125</v>
       </c>
@@ -6409,7 +7147,7 @@
       <c r="J18" s="179"/>
       <c r="K18" s="104"/>
     </row>
-    <row r="19" spans="4:11" ht="24.95" customHeight="1">
+    <row r="19" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="29" t="s">
         <v>126</v>
       </c>
@@ -6422,7 +7160,7 @@
       <c r="J19" s="179"/>
       <c r="K19" s="104"/>
     </row>
-    <row r="20" spans="4:11" ht="24.95" customHeight="1">
+    <row r="20" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="34" t="s">
         <v>127</v>
       </c>
@@ -6435,7 +7173,7 @@
       <c r="J20" s="179"/>
       <c r="K20" s="104"/>
     </row>
-    <row r="21" spans="4:11" ht="24.95" customHeight="1">
+    <row r="21" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="29" t="s">
         <v>128</v>
       </c>
@@ -6448,7 +7186,7 @@
       <c r="J21" s="179"/>
       <c r="K21" s="104"/>
     </row>
-    <row r="22" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="22" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="35" t="s">
         <v>129</v>
       </c>
@@ -6461,7 +7199,7 @@
       <c r="J22" s="179"/>
       <c r="K22" s="104"/>
     </row>
-    <row r="23" spans="4:11" ht="24.95" customHeight="1">
+    <row r="23" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -6470,7 +7208,7 @@
       <c r="J23" s="179"/>
       <c r="K23" s="104"/>
     </row>
-    <row r="24" spans="4:11" ht="24.95" customHeight="1">
+    <row r="24" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
         <v>143</v>
       </c>
@@ -6486,7 +7224,7 @@
       <c r="J24" s="179"/>
       <c r="K24" s="104"/>
     </row>
-    <row r="25" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="25" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D25" s="2"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -6496,33 +7234,33 @@
       <c r="J25" s="179"/>
       <c r="K25" s="104"/>
     </row>
-    <row r="26" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="26" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="E26" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="70"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="72"/>
       <c r="I26" s="103"/>
       <c r="J26" s="179"/>
       <c r="K26" s="104"/>
     </row>
-    <row r="27" spans="4:11" ht="24.95" customHeight="1">
+    <row r="27" spans="4:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" s="2"/>
       <c r="I27" s="103"/>
       <c r="J27" s="179"/>
       <c r="K27" s="104"/>
     </row>
-    <row r="28" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="28" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="2"/>
       <c r="I28" s="103"/>
       <c r="J28" s="179"/>
       <c r="K28" s="104"/>
     </row>
-    <row r="29" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="29" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="10" t="s">
         <v>37</v>
       </c>
@@ -6534,7 +7272,7 @@
       <c r="J29" s="180"/>
       <c r="K29" s="106"/>
     </row>
-    <row r="31" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="31" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -6544,7 +7282,7 @@
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="4:11" ht="24.95" customHeight="1" thickBot="1">
+    <row r="32" spans="4:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" s="163" t="s">
         <v>118</v>
       </c>
@@ -6556,7 +7294,7 @@
       <c r="J32" s="164"/>
       <c r="K32" s="165"/>
     </row>
-    <row r="36" spans="3:4" ht="24.95" customHeight="1">
+    <row r="36" spans="3:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="19">
         <v>1</v>
       </c>
@@ -6564,7 +7302,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="3:4" ht="24.95" customHeight="1">
+    <row r="37" spans="3:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="19">
         <f>C36+1</f>
         <v>2</v>
@@ -6573,7 +7311,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="3:4" ht="24.95" customHeight="1">
+    <row r="38" spans="3:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="19">
         <f t="shared" ref="C38:C47" si="0">C37+1</f>
         <v>3</v>
@@ -6582,7 +7320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="3:4" ht="24.95" customHeight="1">
+    <row r="39" spans="3:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6591,7 +7329,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="3:4" ht="24.95" customHeight="1">
+    <row r="40" spans="3:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6600,7 +7338,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="3:4" ht="24.95" customHeight="1">
+    <row r="41" spans="3:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6609,7 +7347,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="3:4" ht="24.95" customHeight="1">
+    <row r="42" spans="3:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6618,7 +7356,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="3:4" ht="24.95" customHeight="1">
+    <row r="43" spans="3:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6627,7 +7365,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="3:4" ht="24.95" customHeight="1">
+    <row r="44" spans="3:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="19">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6636,7 +7374,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="3:4" ht="24.95" customHeight="1">
+    <row r="45" spans="3:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6645,7 +7383,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="3:4" ht="24.95" customHeight="1">
+    <row r="46" spans="3:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="19">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6654,7 +7392,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="3:4" ht="24.95" customHeight="1">
+    <row r="47" spans="3:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="19">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6689,17 +7427,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908CA4A4-8D8C-4F56-B5D4-2F6B2C3B73D0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D2:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:J4"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="60.28515625" style="1" customWidth="1"/>
@@ -6707,260 +7445,260 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D2" s="71" t="s">
+    <row r="2" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="77" t="s">
         <v>275</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-    </row>
-    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="72" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+    </row>
+    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
-    </row>
-    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
+    </row>
+    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="78" t="s">
         <v>269</v>
       </c>
-      <c r="J5" s="76"/>
-    </row>
-    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="J5" s="79"/>
+    </row>
+    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="76"/>
-    </row>
-    <row r="7" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="79"/>
+    </row>
+    <row r="7" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="2"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76"/>
-    </row>
-    <row r="8" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="I7" s="78"/>
+      <c r="J7" s="79"/>
+    </row>
+    <row r="8" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="76"/>
-    </row>
-    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="E8" s="70"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="79"/>
+    </row>
+    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="2"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
-    </row>
-    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="I9" s="78"/>
+      <c r="J9" s="79"/>
+    </row>
+    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="69" t="s">
+      <c r="F10" s="72"/>
+      <c r="G10" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="70"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="76"/>
-    </row>
-    <row r="11" spans="4:10" ht="24.95" customHeight="1">
+      <c r="H10" s="72"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
+    </row>
+    <row r="11" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="76"/>
-    </row>
-    <row r="12" spans="4:10" ht="24.95" customHeight="1">
+      <c r="I11" s="78"/>
+      <c r="J11" s="79"/>
+    </row>
+    <row r="12" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="63" t="s">
         <v>279</v>
       </c>
-      <c r="I12" s="75"/>
-      <c r="J12" s="76"/>
-    </row>
-    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
+    </row>
+    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="63"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="76"/>
-    </row>
-    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="I13" s="78"/>
+      <c r="J13" s="79"/>
+    </row>
+    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E14" s="69" t="s">
+      <c r="E14" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="69" t="s">
+      <c r="F14" s="72"/>
+      <c r="G14" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="70"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="76"/>
-    </row>
-    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="H14" s="72"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
+    </row>
+    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
       <c r="G15" s="55"/>
       <c r="H15" s="55"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="76"/>
-    </row>
-    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="I15" s="78"/>
+      <c r="J15" s="79"/>
+    </row>
+    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="69" t="s">
+      <c r="F16" s="72"/>
+      <c r="G16" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="76"/>
-    </row>
-    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="H16" s="72"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="79"/>
+    </row>
+    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="76"/>
-    </row>
-    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="I17" s="78"/>
+      <c r="J17" s="79"/>
+    </row>
+    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="69" t="s">
+      <c r="F18" s="72"/>
+      <c r="G18" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="70"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="76"/>
-    </row>
-    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="H18" s="72"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="79"/>
+    </row>
+    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76"/>
-    </row>
-    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="I19" s="78"/>
+      <c r="J19" s="79"/>
+    </row>
+    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E20" s="69" t="s">
+      <c r="E20" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="69" t="s">
+      <c r="F20" s="72"/>
+      <c r="G20" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="70"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="76"/>
-    </row>
-    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="H20" s="72"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="79"/>
+    </row>
+    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="76"/>
-    </row>
-    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="I21" s="78"/>
+      <c r="J21" s="79"/>
+    </row>
+    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E22" s="69" t="s">
+      <c r="E22" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="70"/>
-      <c r="G22" s="69" t="s">
+      <c r="F22" s="72"/>
+      <c r="G22" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="70"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="76"/>
-    </row>
-    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="H22" s="72"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="79"/>
+    </row>
+    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="2"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="76"/>
-    </row>
-    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="I23" s="78"/>
+      <c r="J23" s="79"/>
+    </row>
+    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E24" s="69" t="s">
+      <c r="E24" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="69" t="s">
+      <c r="F24" s="72"/>
+      <c r="G24" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="70"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="76"/>
-    </row>
-    <row r="25" spans="4:10" ht="24.95" customHeight="1">
+      <c r="H24" s="72"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="79"/>
+    </row>
+    <row r="25" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="76"/>
-    </row>
-    <row r="26" spans="4:10" ht="30.75" customHeight="1" thickBot="1">
+      <c r="I25" s="78"/>
+      <c r="J25" s="79"/>
+    </row>
+    <row r="26" spans="4:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="2"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="76"/>
-    </row>
-    <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="I26" s="78"/>
+      <c r="J26" s="79"/>
+    </row>
+    <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="69"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="78"/>
-    </row>
-    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="29" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D29" s="65" t="s">
+      <c r="E27" s="70"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="82"/>
+    </row>
+    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="73" t="s">
         <v>274</v>
       </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="67"/>
-    </row>
-    <row r="31" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="75"/>
+    </row>
+    <row r="31" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -6994,17 +7732,524 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9295AD0-2A0B-4C3C-8661-DA601537DA4B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="D2:H24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="60.28515625" style="1" customWidth="1"/>
+    <col min="5" max="8" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+    </row>
+    <row r="3" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+    </row>
+    <row r="4" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="67"/>
+    </row>
+    <row r="6" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+    </row>
+    <row r="9" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="63"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="72"/>
+      <c r="G10" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="72"/>
+    </row>
+    <row r="11" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="72"/>
+      <c r="G12" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="72"/>
+    </row>
+    <row r="13" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="72"/>
+      <c r="G14" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="72"/>
+    </row>
+    <row r="15" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="72"/>
+      <c r="G16" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="72"/>
+    </row>
+    <row r="17" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="4:8" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="2"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="70"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="72"/>
+    </row>
+    <row r="21" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="73" t="s">
+        <v>274</v>
+      </c>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+    </row>
+    <row r="24" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.118110236220472" right="0.31496062992126" top="0.15748031496063" bottom="0.15748031496063" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup scale="98" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46847E74-1EF5-4311-8D40-F8CA8FEF7CD3}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="D2:J28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="60.28515625" style="1" customWidth="1"/>
+    <col min="5" max="8" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+    </row>
+    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="65" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
+    </row>
+    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+      <c r="I4" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="J4" s="79"/>
+    </row>
+    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
+    </row>
+    <row r="6" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="79"/>
+    </row>
+    <row r="7" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="79"/>
+    </row>
+    <row r="8" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="79"/>
+    </row>
+    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="63"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="79"/>
+    </row>
+    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="72"/>
+      <c r="G10" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="72"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
+    </row>
+    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="79"/>
+    </row>
+    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="72"/>
+      <c r="G12" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="72"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
+    </row>
+    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="79"/>
+    </row>
+    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="72"/>
+      <c r="G14" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="72"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
+    </row>
+    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="79"/>
+    </row>
+    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="72"/>
+      <c r="G16" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="72"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="79"/>
+    </row>
+    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="2"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="79"/>
+    </row>
+    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E18" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="72"/>
+      <c r="G18" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="72"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="79"/>
+    </row>
+    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="2"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="79"/>
+    </row>
+    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E20" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="72"/>
+      <c r="G20" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="72"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="79"/>
+    </row>
+    <row r="21" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="2"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="79"/>
+    </row>
+    <row r="22" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="79"/>
+    </row>
+    <row r="23" spans="4:10" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="2"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="79"/>
+    </row>
+    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="82"/>
+    </row>
+    <row r="25" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="73" t="s">
+        <v>274</v>
+      </c>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="75"/>
+    </row>
+    <row r="28" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="I4:J24"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.118110236220472" right="0.31496062992126" top="0.15748031496063" bottom="0.15748031496063" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C9DF84-F137-4F5E-8EAA-5B5E6E84CAE1}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D2:H29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="60.28515625" style="1" customWidth="1"/>
@@ -7015,177 +8260,177 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:8" ht="24.95" customHeight="1">
+    <row r="2" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="4:8" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="4" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="72" t="s">
+    <row r="3" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
-    </row>
-    <row r="5" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
+    </row>
+    <row r="5" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+    <row r="6" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74"/>
-    </row>
-    <row r="7" spans="4:8" ht="24.95" customHeight="1">
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+    </row>
+    <row r="7" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="4:8" ht="24.95" customHeight="1">
+    <row r="8" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="85"/>
-    </row>
-    <row r="9" spans="4:8" ht="24.95" customHeight="1">
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
+    </row>
+    <row r="9" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="4:8" ht="24.95" customHeight="1">
+    <row r="10" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="85"/>
-    </row>
-    <row r="11" spans="4:8" ht="24.95" customHeight="1">
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+    </row>
+    <row r="11" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="4:8" ht="24.95" customHeight="1">
+    <row r="12" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="4:8" ht="24.95" customHeight="1">
+    <row r="13" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="4:8" ht="24.95" customHeight="1">
+    <row r="14" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="4:8" ht="24.95" customHeight="1">
+    <row r="15" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="4:8" ht="24.95" customHeight="1">
+    <row r="16" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="4:8" ht="24.95" customHeight="1">
+    <row r="17" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="4:8" ht="24.95" customHeight="1">
+    <row r="18" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="4:8" ht="24.95" customHeight="1">
+    <row r="19" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+    <row r="20" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+    <row r="21" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="69"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="70"/>
-    </row>
-    <row r="23" spans="4:8" ht="24.95" customHeight="1">
+      <c r="E21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="72"/>
+    </row>
+    <row r="23" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="47" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="4:8" ht="24.95" customHeight="1">
+    <row r="24" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="28" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="25" spans="4:8" ht="24.95" customHeight="1">
+    <row r="25" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="28" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="26" spans="4:8" ht="24.95" customHeight="1">
+    <row r="26" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="28" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="27" spans="4:8" ht="24.95" customHeight="1">
+    <row r="27" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" s="28" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="4:8" ht="24.95" customHeight="1">
+    <row r="28" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="28" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="29" spans="4:8" ht="24.95" customHeight="1">
+    <row r="29" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="28" t="s">
         <v>295</v>
       </c>
@@ -7205,18 +8450,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F72ECF-86A8-40AA-B89E-7A64D093A232}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D2:H33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="60.28515625" style="1" customWidth="1"/>
@@ -7224,35 +8469,35 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+    <row r="2" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+    <row r="3" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="45"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="72" t="s">
+    <row r="4" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
-    </row>
-    <row r="5" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
+    </row>
+    <row r="5" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="45"/>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+    <row r="6" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="43" t="s">
         <v>131</v>
       </c>
@@ -7263,41 +8508,41 @@
       <c r="G6" s="90"/>
       <c r="H6" s="91"/>
     </row>
-    <row r="7" spans="4:8" ht="24.95" customHeight="1">
+    <row r="7" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+    <row r="8" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="2"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+    <row r="9" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="69" t="s">
+      <c r="F9" s="72"/>
+      <c r="G9" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="70"/>
-    </row>
-    <row r="10" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+      <c r="H9" s="72"/>
+    </row>
+    <row r="10" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+    <row r="11" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
         <v>262</v>
       </c>
@@ -7308,56 +8553,56 @@
       <c r="G11" s="96"/>
       <c r="H11" s="97"/>
     </row>
-    <row r="12" spans="4:8" ht="24.95" customHeight="1">
+    <row r="12" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="4:8" ht="24.95" customHeight="1">
+    <row r="13" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="4:8" ht="24.95" customHeight="1">
+    <row r="14" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="4:8" ht="24.95" customHeight="1">
+    <row r="15" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="4:8" ht="24.95" customHeight="1">
+    <row r="16" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="4:8" ht="24.95" customHeight="1">
+    <row r="17" spans="4:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+    <row r="18" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="53"/>
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
       <c r="H18" s="60"/>
     </row>
-    <row r="19" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+    <row r="19" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D19" s="10" t="s">
         <v>12</v>
       </c>
@@ -7366,17 +8611,17 @@
       <c r="G19" s="93"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="21" spans="4:8" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="22" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D22" s="65" t="s">
+    <row r="21" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="67"/>
-    </row>
-    <row r="23" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+    </row>
+    <row r="23" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="2" t="s">
         <v>255</v>
       </c>
@@ -7385,59 +8630,59 @@
       <c r="G23" s="93"/>
       <c r="H23" s="94"/>
     </row>
-    <row r="24" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+    <row r="24" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="2"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+    <row r="25" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D25" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E25" s="69" t="s">
+      <c r="E25" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="70"/>
-    </row>
-    <row r="26" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="72"/>
+    </row>
+    <row r="26" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="2"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
       <c r="H26" s="59"/>
     </row>
-    <row r="27" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+    <row r="27" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E27" s="69" t="s">
+      <c r="E27" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="70"/>
-    </row>
-    <row r="28" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="72"/>
+    </row>
+    <row r="28" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="2"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+    <row r="29" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="70"/>
-    </row>
-    <row r="30" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+      <c r="E29" s="70"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="72"/>
+    </row>
+    <row r="30" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D30" s="61" t="s">
         <v>264</v>
       </c>
@@ -7446,7 +8691,7 @@
       <c r="G30" s="87"/>
       <c r="H30" s="88"/>
     </row>
-    <row r="31" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+    <row r="31" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" s="61" t="s">
         <v>265</v>
       </c>
@@ -7455,7 +8700,7 @@
       <c r="G31" s="87"/>
       <c r="H31" s="88"/>
     </row>
-    <row r="32" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+    <row r="32" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" s="61" t="s">
         <v>267</v>
       </c>
@@ -7464,7 +8709,7 @@
       <c r="G32" s="57"/>
       <c r="H32" s="58"/>
     </row>
-    <row r="33" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+    <row r="33" spans="4:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D33" s="62" t="s">
         <v>266</v>
       </c>
@@ -7497,8 +8742,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A14B44-FDDE-4026-8A07-8423043A7140}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7508,33 +8753,33 @@
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="67.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:12" ht="24.95" customHeight="1">
+    <row r="2" spans="4:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="4:12" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="4" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="72" t="s">
+    <row r="3" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="65" t="s">
         <v>249</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="74"/>
-    </row>
-    <row r="5" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="67"/>
+    </row>
+    <row r="5" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="2" t="s">
         <v>232</v>
       </c>
@@ -7551,7 +8796,7 @@
       </c>
       <c r="L5" s="104"/>
     </row>
-    <row r="6" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="6" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="2"/>
       <c r="E6" s="52"/>
       <c r="F6" s="52"/>
@@ -7562,24 +8807,24 @@
       <c r="K6" s="103"/>
       <c r="L6" s="104"/>
     </row>
-    <row r="7" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="7" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="69" t="s">
+      <c r="F7" s="71"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72"/>
       <c r="K7" s="103"/>
       <c r="L7" s="104"/>
     </row>
-    <row r="8" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="8" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="2"/>
       <c r="E8" s="52"/>
       <c r="F8" s="52"/>
@@ -7590,7 +8835,7 @@
       <c r="K8" s="103"/>
       <c r="L8" s="104"/>
     </row>
-    <row r="9" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="9" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>238</v>
       </c>
@@ -7605,7 +8850,7 @@
       <c r="K9" s="103"/>
       <c r="L9" s="104"/>
     </row>
-    <row r="10" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="10" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="52"/>
       <c r="F10" s="52"/>
@@ -7616,7 +8861,7 @@
       <c r="K10" s="103"/>
       <c r="L10" s="104"/>
     </row>
-    <row r="11" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="11" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
         <v>200</v>
       </c>
@@ -7631,34 +8876,34 @@
       <c r="K11" s="103"/>
       <c r="L11" s="104"/>
     </row>
-    <row r="12" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="12" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="K12" s="103"/>
       <c r="L12" s="104"/>
     </row>
-    <row r="13" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="13" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="72" t="s">
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
       <c r="K13" s="103"/>
       <c r="L13" s="104"/>
     </row>
-    <row r="14" spans="4:12" ht="24.95" customHeight="1">
+    <row r="14" spans="4:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="K14" s="103"/>
       <c r="L14" s="104"/>
     </row>
-    <row r="15" spans="4:12" ht="24.95" customHeight="1">
+    <row r="15" spans="4:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
         <v>203</v>
       </c>
@@ -7677,12 +8922,12 @@
       <c r="K15" s="103"/>
       <c r="L15" s="104"/>
     </row>
-    <row r="16" spans="4:12" ht="24.95" customHeight="1">
+    <row r="16" spans="4:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="K16" s="103"/>
       <c r="L16" s="104"/>
     </row>
-    <row r="17" spans="4:12" ht="24.95" customHeight="1">
+    <row r="17" spans="4:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
         <v>239</v>
       </c>
@@ -7699,12 +8944,12 @@
       <c r="K17" s="103"/>
       <c r="L17" s="104"/>
     </row>
-    <row r="18" spans="4:12" ht="24.95" customHeight="1">
+    <row r="18" spans="4:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="K18" s="103"/>
       <c r="L18" s="104"/>
     </row>
-    <row r="19" spans="4:12" ht="24.95" customHeight="1">
+    <row r="19" spans="4:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="2" t="s">
         <v>77</v>
       </c>
@@ -7721,7 +8966,7 @@
       <c r="K19" s="103"/>
       <c r="L19" s="104"/>
     </row>
-    <row r="20" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="20" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
@@ -7732,80 +8977,80 @@
       <c r="K20" s="103"/>
       <c r="L20" s="104"/>
     </row>
-    <row r="21" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="21" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E21" s="69" t="s">
+      <c r="E21" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="72"/>
       <c r="K21" s="103"/>
       <c r="L21" s="104"/>
     </row>
-    <row r="22" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="22" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="2"/>
       <c r="K22" s="103"/>
       <c r="L22" s="104"/>
     </row>
-    <row r="23" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="23" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="69"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="72"/>
       <c r="K23" s="105"/>
       <c r="L23" s="106"/>
     </row>
-    <row r="25" spans="4:12" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="47" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="4:12" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="28" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="4:12" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" s="28" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="28" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="28" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="4:12" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="28" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="4:12" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="28" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="4:12" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="28" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="4:4" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="4:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="28" t="s">
         <v>248</v>
       </c>
@@ -7837,44 +9082,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08206B97-D510-4F4A-BB31-B60621AB752C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D2:L40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="42.5703125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:12" ht="24.95" customHeight="1">
+    <row r="2" spans="4:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="4:12" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="4" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="72" t="s">
+    <row r="3" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="74"/>
-    </row>
-    <row r="5" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="67"/>
+    </row>
+    <row r="5" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="2" t="s">
         <v>232</v>
       </c>
@@ -7891,7 +9134,7 @@
       </c>
       <c r="L5" s="104"/>
     </row>
-    <row r="6" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="6" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="2"/>
       <c r="E6" s="52"/>
       <c r="F6" s="52"/>
@@ -7902,24 +9145,24 @@
       <c r="K6" s="103"/>
       <c r="L6" s="104"/>
     </row>
-    <row r="7" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="7" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="69" t="s">
+      <c r="F7" s="71"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72"/>
       <c r="K7" s="103"/>
       <c r="L7" s="104"/>
     </row>
-    <row r="8" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="8" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="2"/>
       <c r="E8" s="52"/>
       <c r="F8" s="52"/>
@@ -7930,7 +9173,7 @@
       <c r="K8" s="103"/>
       <c r="L8" s="104"/>
     </row>
-    <row r="9" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="9" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>238</v>
       </c>
@@ -7945,7 +9188,7 @@
       <c r="K9" s="103"/>
       <c r="L9" s="104"/>
     </row>
-    <row r="10" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="10" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="52"/>
       <c r="F10" s="52"/>
@@ -7956,7 +9199,7 @@
       <c r="K10" s="103"/>
       <c r="L10" s="104"/>
     </row>
-    <row r="11" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="11" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
         <v>200</v>
       </c>
@@ -7971,7 +9214,7 @@
       <c r="K11" s="103"/>
       <c r="L11" s="104"/>
     </row>
-    <row r="12" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="12" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
@@ -7982,7 +9225,7 @@
       <c r="K12" s="103"/>
       <c r="L12" s="104"/>
     </row>
-    <row r="13" spans="4:12" ht="24.95" customHeight="1">
+    <row r="13" spans="4:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>202</v>
       </c>
@@ -7999,12 +9242,12 @@
       <c r="K13" s="103"/>
       <c r="L13" s="104"/>
     </row>
-    <row r="14" spans="4:12" ht="24.95" customHeight="1">
+    <row r="14" spans="4:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="K14" s="103"/>
       <c r="L14" s="104"/>
     </row>
-    <row r="15" spans="4:12" ht="24.95" customHeight="1">
+    <row r="15" spans="4:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
         <v>203</v>
       </c>
@@ -8023,12 +9266,12 @@
       <c r="K15" s="103"/>
       <c r="L15" s="104"/>
     </row>
-    <row r="16" spans="4:12" ht="24.95" customHeight="1">
+    <row r="16" spans="4:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="K16" s="103"/>
       <c r="L16" s="104"/>
     </row>
-    <row r="17" spans="4:12" ht="24.95" customHeight="1">
+    <row r="17" spans="4:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
         <v>239</v>
       </c>
@@ -8045,12 +9288,12 @@
       <c r="K17" s="103"/>
       <c r="L17" s="104"/>
     </row>
-    <row r="18" spans="4:12" ht="24.95" customHeight="1">
+    <row r="18" spans="4:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="K18" s="103"/>
       <c r="L18" s="104"/>
     </row>
-    <row r="19" spans="4:12" ht="24.95" customHeight="1">
+    <row r="19" spans="4:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="2" t="s">
         <v>77</v>
       </c>
@@ -8067,7 +9310,7 @@
       <c r="K19" s="103"/>
       <c r="L19" s="104"/>
     </row>
-    <row r="20" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="20" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
@@ -8078,115 +9321,115 @@
       <c r="K20" s="103"/>
       <c r="L20" s="104"/>
     </row>
-    <row r="21" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="21" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E21" s="69" t="s">
+      <c r="E21" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="72"/>
       <c r="K21" s="103"/>
       <c r="L21" s="104"/>
     </row>
-    <row r="22" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="22" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="2"/>
       <c r="K22" s="103"/>
       <c r="L22" s="104"/>
     </row>
-    <row r="23" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
+    <row r="23" spans="4:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="69"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="72"/>
       <c r="K23" s="105"/>
       <c r="L23" s="106"/>
     </row>
-    <row r="25" spans="4:12" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="47" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="4:12" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="4:12" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" s="28" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="28" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="28" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="4:12" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="28" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="4:12" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="28" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="4:12" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="28" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="4:4" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="4:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="28" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="4:4" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="4:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="28" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="4:4" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="4:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="28" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="4:4" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="4:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="28" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="4:4" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="4:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="28" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="4:4" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="4:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="28" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="4:4" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="4:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="28" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="4:4" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="4:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="28" t="s">
         <v>196</v>
       </c>
@@ -8216,793 +9459,4 @@
   <pageMargins left="0.11811023622047245" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="87" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="D2:L37"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
-  <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="42.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:12" ht="24.95" customHeight="1">
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="4:12" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="4" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="72" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="74"/>
-    </row>
-    <row r="5" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D5" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="95" t="s">
-        <v>208</v>
-      </c>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="103" t="s">
-        <v>207</v>
-      </c>
-      <c r="L5" s="104"/>
-    </row>
-    <row r="6" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D6" s="2"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="104"/>
-    </row>
-    <row r="7" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D7" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="104"/>
-    </row>
-    <row r="8" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D8" s="2"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="104"/>
-    </row>
-    <row r="9" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D9" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E9" s="95" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="104"/>
-    </row>
-    <row r="10" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D10" s="2"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="104"/>
-    </row>
-    <row r="11" spans="4:12" ht="24.95" customHeight="1">
-      <c r="D11" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E11" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="108"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="108"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="104"/>
-    </row>
-    <row r="12" spans="4:12" ht="24.95" customHeight="1">
-      <c r="D12" s="2"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="104"/>
-    </row>
-    <row r="13" spans="4:12" ht="24.95" customHeight="1">
-      <c r="D13" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" s="98" t="s">
-        <v>204</v>
-      </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98" t="s">
-        <v>206</v>
-      </c>
-      <c r="J13" s="98"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="104"/>
-    </row>
-    <row r="14" spans="4:12" ht="24.95" customHeight="1">
-      <c r="D14" s="2"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="104"/>
-    </row>
-    <row r="15" spans="4:12" ht="24.95" customHeight="1">
-      <c r="D15" s="2"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="104"/>
-    </row>
-    <row r="16" spans="4:12" ht="24.95" customHeight="1">
-      <c r="D16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="99" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="100"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="104"/>
-    </row>
-    <row r="17" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D17" s="2"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="104"/>
-    </row>
-    <row r="18" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="104"/>
-    </row>
-    <row r="19" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D19" s="2"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="104"/>
-    </row>
-    <row r="20" spans="4:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="69"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="106"/>
-    </row>
-    <row r="22" spans="4:12" ht="20.100000000000001" customHeight="1">
-      <c r="D22" s="47" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="4:12" ht="20.100000000000001" customHeight="1">
-      <c r="D23" s="28" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="4:12" ht="20.100000000000001" customHeight="1">
-      <c r="D24" s="28" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="4:12" ht="20.100000000000001" customHeight="1">
-      <c r="D25" s="28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="4:12" ht="20.100000000000001" customHeight="1">
-      <c r="D26" s="28" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="4:12" ht="20.100000000000001" customHeight="1">
-      <c r="D27" s="28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="4:12" ht="20.100000000000001" customHeight="1">
-      <c r="D28" s="28" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="4:12" ht="20.100000000000001" customHeight="1">
-      <c r="D29" s="28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="4:12" ht="20.100000000000001" customHeight="1">
-      <c r="D30" s="28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="4:12" ht="20.100000000000001" customHeight="1">
-      <c r="D31" s="28" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="4:12" ht="20.100000000000001" customHeight="1">
-      <c r="D32" s="28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" ht="20.100000000000001" customHeight="1">
-      <c r="D33" s="28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" ht="20.100000000000001" customHeight="1">
-      <c r="D34" s="28" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" ht="20.100000000000001" customHeight="1">
-      <c r="D35" s="28" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" ht="20.100000000000001" customHeight="1">
-      <c r="D36" s="28" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" ht="20.100000000000001" customHeight="1">
-      <c r="D37" s="28" t="s">
-        <v>196</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="K5:L20"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="I13:J13"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.11811023622047245" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="87" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="D2:J42"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
-  <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="60.28515625" style="1" customWidth="1"/>
-    <col min="5" max="8" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D2" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
-    </row>
-    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D5" s="45"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="115" t="s">
-        <v>155</v>
-      </c>
-      <c r="J5" s="116"/>
-    </row>
-    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D6" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
-    </row>
-    <row r="7" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D7" s="2"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="104"/>
-    </row>
-    <row r="8" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D8" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="111" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="104"/>
-    </row>
-    <row r="9" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D9" s="2"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="104"/>
-    </row>
-    <row r="10" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D10" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="111" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="104"/>
-    </row>
-    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D11" s="2"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="104"/>
-    </row>
-    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D12" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="104"/>
-    </row>
-    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D13" s="2"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="104"/>
-    </row>
-    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D14" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="104"/>
-    </row>
-    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D15" s="2"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="104"/>
-    </row>
-    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D16" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="81"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="104"/>
-    </row>
-    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D17" s="2"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="104"/>
-    </row>
-    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D18" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="104"/>
-    </row>
-    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D19" s="2"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="104"/>
-    </row>
-    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="86" t="s">
-        <v>167</v>
-      </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="104"/>
-    </row>
-    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D21" s="2"/>
-      <c r="E21" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="104"/>
-    </row>
-    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D22" s="2"/>
-      <c r="E22" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="104"/>
-    </row>
-    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D23" s="2"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="104"/>
-    </row>
-    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D24" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E24" s="69" t="s">
-        <v>166</v>
-      </c>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="104"/>
-    </row>
-    <row r="25" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D25" s="2"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="104"/>
-    </row>
-    <row r="26" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D26" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="70"/>
-      <c r="G26" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="81"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="104"/>
-    </row>
-    <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D27" s="2"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="104"/>
-    </row>
-    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D28" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="104"/>
-    </row>
-    <row r="29" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D29" s="2"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="104"/>
-    </row>
-    <row r="30" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D30" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="H30" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="I30" s="103"/>
-      <c r="J30" s="104"/>
-    </row>
-    <row r="31" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D31" s="2"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="104"/>
-    </row>
-    <row r="32" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D32" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E32" s="86" t="s">
-        <v>156</v>
-      </c>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="104"/>
-    </row>
-    <row r="33" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D33" s="2"/>
-      <c r="E33" s="86" t="s">
-        <v>157</v>
-      </c>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="104"/>
-    </row>
-    <row r="34" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D34" s="2"/>
-      <c r="E34" s="86" t="s">
-        <v>158</v>
-      </c>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="104"/>
-    </row>
-    <row r="35" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D35" s="2"/>
-      <c r="E35" s="86" t="s">
-        <v>160</v>
-      </c>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="104"/>
-    </row>
-    <row r="36" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D36" s="2"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="104"/>
-    </row>
-    <row r="37" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D37" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="113"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="106"/>
-    </row>
-    <row r="39" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="40" spans="4:10" ht="45.6" customHeight="1" thickBot="1">
-      <c r="D40" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="67"/>
-    </row>
-    <row r="42" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <mergeCells count="22">
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="I5:J37"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E34:H34"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.11811023622047245" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="79" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>